--- a/crawling/data/경희대학교_국제캠퍼스.xlsx
+++ b/crawling/data/경희대학교_국제캠퍼스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\One_for_One_2nd\One_for_One\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44C66DD-359E-415A-923E-4F2103F620B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B2B23-E04B-41F7-B7C7-036B2180ECC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요기요_경희국제_new" sheetId="1" r:id="rId1"/>
@@ -3486,7 +3486,7 @@
   <dimension ref="A1:I469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H469"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
